--- a/biology/Médecine/Medical_Simulation_Center_de_Tunis/Medical_Simulation_Center_de_Tunis.xlsx
+++ b/biology/Médecine/Medical_Simulation_Center_de_Tunis/Medical_Simulation_Center_de_Tunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Medical Simulation Center de Tunis (MSC) est un centre de simulation de santé privé situé à Tunis en Tunisie.
@@ -512,13 +524,50 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inauguré en novembre 2018, l'établissement est alors le premier centre de simulation médicale du Maghreb[1]. Le centre appartient au réseau Honoris United Universities, qui y a investi quatre millions de dinars[2]. Il s'étend sur 2 500 m2 et a pour vocation de former des médecins, des infirmiers et des étudiants en santé.
-Dirigé par le professeur Chedli Dziri, le centre dispose de quatre unités de simulation équipées de mannequins connectés et de casques de réalité virtuelle[3].
-En 2020, plus de 2 000 étudiants et professionnels ont été formés au MSC[4].
-Accréditations
-Le centre a reçu l'accréditation de la Society for Simulation in Healthcare (en) en 2020. Le centre est également accrédité par l'Instance nationale de l'évaluation et de l'accréditation en santé tunisienne[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inauguré en novembre 2018, l'établissement est alors le premier centre de simulation médicale du Maghreb. Le centre appartient au réseau Honoris United Universities, qui y a investi quatre millions de dinars. Il s'étend sur 2 500 m2 et a pour vocation de former des médecins, des infirmiers et des étudiants en santé.
+Dirigé par le professeur Chedli Dziri, le centre dispose de quatre unités de simulation équipées de mannequins connectés et de casques de réalité virtuelle.
+En 2020, plus de 2 000 étudiants et professionnels ont été formés au MSC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Medical_Simulation_Center_de_Tunis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Medical_Simulation_Center_de_Tunis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Accréditations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre a reçu l'accréditation de la Society for Simulation in Healthcare (en) en 2020. Le centre est également accrédité par l'Instance nationale de l'évaluation et de l'accréditation en santé tunisienne.
 </t>
         </is>
       </c>
